--- a/기획/Prop_Sheet_0413.xlsx
+++ b/기획/Prop_Sheet_0413.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김민성\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\깃\Vampire_0427\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E9FD973-7F0F-4342-864D-4C52F03E5BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="1815" windowWidth="22350" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1815" windowWidth="22350" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>propNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,13 +188,77 @@
   </si>
   <si>
     <t>standChair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 이후 시트 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_Floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 바닥 타일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x, y, z 순으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100x10x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_Floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200x10x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic_Wall_1thFloor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic_Wall_2thFloor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic_Wall_3thFloor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200x10x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200x10x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50x10x80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,11 +629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -803,64 +875,102 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>10018</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>10019</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+        <v>10018</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>10020</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+        <v>10019</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>10021</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+        <v>10020</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>10022</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+        <v>10021</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>10023</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+        <v>10022</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>10024</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+        <v>10023</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>10025</v>
+        <v>10024</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -868,7 +978,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>10026</v>
+        <v>10025</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -876,7 +986,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>10027</v>
+        <v>10026</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -884,7 +994,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>10028</v>
+        <v>10027</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -892,7 +1002,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>10029</v>
+        <v>10028</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -900,7 +1010,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>10030</v>
+        <v>10029</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -908,7 +1018,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>10031</v>
+        <v>10030</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -916,7 +1026,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>10032</v>
+        <v>10031</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -924,7 +1034,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>10033</v>
+        <v>10032</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -932,7 +1042,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>10034</v>
+        <v>10033</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -940,7 +1050,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>10035</v>
+        <v>10034</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -948,7 +1058,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>10036</v>
+        <v>10035</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -956,7 +1066,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>10037</v>
+        <v>10036</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -964,7 +1074,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>10038</v>
+        <v>10037</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -972,7 +1082,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>10039</v>
+        <v>10038</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -980,7 +1090,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>10040</v>
+        <v>10039</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -988,7 +1098,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>10041</v>
+        <v>10040</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -996,7 +1106,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>10042</v>
+        <v>10041</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1004,7 +1114,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>10043</v>
+        <v>10042</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1012,7 +1122,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>10044</v>
+        <v>10043</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1020,7 +1130,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>10045</v>
+        <v>10044</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1028,7 +1138,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>10046</v>
+        <v>10045</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1036,7 +1146,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>10047</v>
+        <v>10046</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1044,7 +1154,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>10048</v>
+        <v>10047</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1052,7 +1162,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>10049</v>
+        <v>10048</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1060,7 +1170,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>10050</v>
+        <v>10049</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1068,7 +1178,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>10051</v>
+        <v>10050</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1076,7 +1186,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>10052</v>
+        <v>10051</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1084,7 +1194,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>10053</v>
+        <v>10052</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1092,7 +1202,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>10054</v>
+        <v>10053</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1100,7 +1210,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>10055</v>
+        <v>10054</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1108,7 +1218,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>10056</v>
+        <v>10055</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1116,7 +1226,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>10057</v>
+        <v>10056</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1124,7 +1234,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>10058</v>
+        <v>10057</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1132,7 +1242,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>10059</v>
+        <v>10058</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1140,7 +1250,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>10060</v>
+        <v>10059</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1148,7 +1258,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>10061</v>
+        <v>10060</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1156,7 +1266,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>10062</v>
+        <v>10061</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1164,7 +1274,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>10063</v>
+        <v>10062</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1172,7 +1282,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>10064</v>
+        <v>10063</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1180,7 +1290,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>10065</v>
+        <v>10064</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1188,7 +1298,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>10066</v>
+        <v>10065</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1196,7 +1306,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>10067</v>
+        <v>10066</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1204,7 +1314,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>10068</v>
+        <v>10067</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1212,7 +1322,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>10069</v>
+        <v>10068</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1220,7 +1330,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>10070</v>
+        <v>10069</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1228,7 +1338,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>10071</v>
+        <v>10070</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1236,7 +1346,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>10072</v>
+        <v>10071</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1244,7 +1354,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>10073</v>
+        <v>10072</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1252,7 +1362,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>10074</v>
+        <v>10073</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1260,7 +1370,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>10075</v>
+        <v>10074</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1268,7 +1378,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>10076</v>
+        <v>10075</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1276,7 +1386,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>10077</v>
+        <v>10076</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1284,7 +1394,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>10078</v>
+        <v>10077</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1292,7 +1402,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>10079</v>
+        <v>10078</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1300,7 +1410,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>10080</v>
+        <v>10079</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1308,7 +1418,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>10081</v>
+        <v>10080</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1316,7 +1426,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>10082</v>
+        <v>10081</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1324,7 +1434,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>10083</v>
+        <v>10082</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1332,7 +1442,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>10084</v>
+        <v>10083</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1340,7 +1450,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>10085</v>
+        <v>10084</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1348,7 +1458,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>10086</v>
+        <v>10085</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1356,7 +1466,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>10087</v>
+        <v>10086</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1364,7 +1474,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>10088</v>
+        <v>10087</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1372,7 +1482,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>10089</v>
+        <v>10088</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1380,7 +1490,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>10090</v>
+        <v>10089</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1388,7 +1498,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>10091</v>
+        <v>10090</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1396,7 +1506,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>10092</v>
+        <v>10091</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1404,7 +1514,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>10093</v>
+        <v>10092</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1412,7 +1522,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>10094</v>
+        <v>10093</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1420,7 +1530,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>10095</v>
+        <v>10094</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1428,7 +1538,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>10096</v>
+        <v>10095</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1436,7 +1546,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>10097</v>
+        <v>10096</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1444,11 +1554,16 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>10098</v>
+        <v>10097</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>10098</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1458,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1471,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1484,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1497,7 +1612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1510,7 +1625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1523,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1536,7 +1651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1549,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1562,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/기획/Prop_Sheet_0413.xlsx
+++ b/기획/Prop_Sheet_0413.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\깃\Vampire_0427\기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Vampire_0429\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1774BF5-4FA8-4235-BC46-8BA8E9EECB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="1815" windowWidth="22350" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>propNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,13 +253,49 @@
   </si>
   <si>
     <t>50x10x80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fight_Rounge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결투장(격투기 경기 링)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fight_Rounge_Pillar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결투장 모서리 기둥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,000x200x1,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80x600x80(원기둥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bleachers_Chair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관중석 의자(10개 세트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의자 하나당 20x30x20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -328,13 +365,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,8 +421,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,10 +712,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -876,11 +959,11 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -894,7 +977,7 @@
       <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -908,7 +991,7 @@
       <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -922,7 +1005,7 @@
       <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -936,7 +1019,7 @@
       <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -950,7 +1033,7 @@
       <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -964,7 +1047,7 @@
       <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -972,25 +1055,43 @@
       <c r="A27" s="1">
         <v>10024</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>10025</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>10026</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -998,7 +1099,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1006,7 +1107,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1014,7 +1115,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -1022,7 +1123,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -1030,7 +1131,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -1038,7 +1139,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -1046,7 +1147,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -1054,7 +1155,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -1062,7 +1163,7 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -1070,7 +1171,7 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -1078,7 +1179,7 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -1086,7 +1187,7 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -1094,7 +1195,7 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -1102,7 +1203,7 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1110,7 +1211,7 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -1118,7 +1219,7 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -1126,7 +1227,7 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -1134,7 +1235,7 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -1142,7 +1243,7 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -1150,7 +1251,7 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
@@ -1158,7 +1259,7 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -1166,7 +1267,7 @@
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -1174,7 +1275,7 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
@@ -1182,7 +1283,7 @@
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
@@ -1190,7 +1291,7 @@
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -1198,7 +1299,7 @@
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
@@ -1206,7 +1307,7 @@
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -1214,7 +1315,7 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -1222,7 +1323,7 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -1230,7 +1331,7 @@
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
@@ -1238,7 +1339,7 @@
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
@@ -1246,7 +1347,7 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
@@ -1254,7 +1355,7 @@
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
@@ -1262,7 +1363,7 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
@@ -1573,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1586,7 +1687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1599,7 +1700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1612,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1625,7 +1726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1638,7 +1739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1651,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1664,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1677,7 +1778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
